--- a/config/信息说明.xlsx
+++ b/config/信息说明.xlsx
@@ -647,7 +647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <v>0.125</v>
@@ -1001,7 +1001,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="12"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>

--- a/config/信息说明.xlsx
+++ b/config/信息说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>小组最大人数</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>第几次做马拉松志愿者</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,6 +271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -593,18 +599,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="10.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -934,8 +940,12 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
@@ -989,7 +999,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1002,7 +1012,7 @@
       <c r="L17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1058,8 +1068,8 @@
       <c r="L21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1100,8 +1110,8 @@
       <c r="L24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1114,8 +1124,8 @@
       <c r="L25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1128,8 +1138,8 @@
       <c r="L26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1142,8 +1152,8 @@
       <c r="L27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1156,8 +1166,8 @@
       <c r="L28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1170,8 +1180,8 @@
       <c r="L29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
